--- a/repo-images/temperture-measurement-data.xlsx
+++ b/repo-images/temperture-measurement-data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Diego/Dropbox/Minor Everything Web/minor-web-of-things-server/repo-images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programming\Dropbox\Minor Everything Web\minor-web-of-things-server\repo-images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,9 +44,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -88,34 +88,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7FC1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -132,36 +140,42 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                <a:ln w="0"/>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
-              <a:t>Temperture</a:t>
+              <a:rPr lang="en-US" sz="2800" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="6E747A">
+                      <a:alpha val="43000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Temperture measurement of coffee machine</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2800" baseline="0"/>
-              <a:t> measurement of coffee machine</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2800"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16461479712576912"/>
+          <c:y val="2.206581520314134E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -175,24 +189,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -217,13 +223,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="101600" dist="279400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -235,151 +247,151 @@
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.000353888888888889</c:v>
+                  <c:v>3.5388888888888888E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000536006944444444</c:v>
+                  <c:v>5.3600694444444442E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0007178125</c:v>
+                  <c:v>7.1781250000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00107665509259259</c:v>
+                  <c:v>1.0766550925925926E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00125881944444444</c:v>
+                  <c:v>1.2588194444444444E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00144059027777778</c:v>
+                  <c:v>1.4405902777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00162237268518518</c:v>
+                  <c:v>1.6223726851851852E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00180414351851852</c:v>
+                  <c:v>1.8041435185185185E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00198611111111111</c:v>
+                  <c:v>1.9861111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00220309027777778</c:v>
+                  <c:v>2.2030902777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00238489583333333</c:v>
+                  <c:v>2.3848958333333335E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00274385416666667</c:v>
+                  <c:v>2.7438541666666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00292563657407407</c:v>
+                  <c:v>2.925636574074074E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00310740740740741</c:v>
+                  <c:v>3.1074074074074073E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00346673611111111</c:v>
+                  <c:v>3.466736111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00364851851851852</c:v>
+                  <c:v>3.6485185185185184E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00383030092592592</c:v>
+                  <c:v>3.8303009259259258E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00401208333333333</c:v>
+                  <c:v>4.0120833333333336E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00419409722222222</c:v>
+                  <c:v>4.1940972222222223E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00437587962962963</c:v>
+                  <c:v>4.3758796296296297E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00473473379629629</c:v>
+                  <c:v>4.7347337962962959E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00509391203703704</c:v>
+                  <c:v>5.0939120370370374E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00527571759259259</c:v>
+                  <c:v>5.2757175925925923E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00545753472222222</c:v>
+                  <c:v>5.4575347222222221E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00563950231481481</c:v>
+                  <c:v>5.6395023148148151E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0058212962962963</c:v>
+                  <c:v>5.8212962962962966E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0060030787037037</c:v>
+                  <c:v>6.003078703703704E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00618483796296296</c:v>
+                  <c:v>6.1848379629629632E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00636680555555555</c:v>
+                  <c:v>6.3668055555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00654859953703703</c:v>
+                  <c:v>6.5485995370370368E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00673039351851852</c:v>
+                  <c:v>6.7303935185185184E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00691225694444444</c:v>
+                  <c:v>6.9122569444444448E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00727116898148148</c:v>
+                  <c:v>7.2711689814814818E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00763002314814815</c:v>
+                  <c:v>7.6300231481481479E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00781188657407407</c:v>
+                  <c:v>7.8118865740740744E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00799368055555555</c:v>
+                  <c:v>7.993680555555556E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00817543981481481</c:v>
+                  <c:v>8.1754398148148142E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00853445601851852</c:v>
+                  <c:v>8.5344560185185193E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00889331018518518</c:v>
+                  <c:v>8.8933101851851847E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00907511574074074</c:v>
+                  <c:v>9.0751157407407412E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.00925708333333333</c:v>
+                  <c:v>9.2570833333333342E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.00943883101851852</c:v>
+                  <c:v>9.4388310185185183E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.00979768518518518</c:v>
+                  <c:v>9.7976851851851853E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.00997986111111111</c:v>
+                  <c:v>9.9798611111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0101616782407407</c:v>
+                  <c:v>1.016167824074074E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0105204976851852</c:v>
+                  <c:v>1.0520497685185185E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0107796064814815</c:v>
+                  <c:v>1.0779606481481482E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0110359722222222</c:v>
+                  <c:v>1.1035972222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0112917361111111</c:v>
+                  <c:v>1.1291736111111112E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -388,162 +400,166 @@
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$50</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FDB-4389-BA7F-4DFB1F41F4D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -551,30 +567,98 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="101600" dist="279400" dir="2700000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="57000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:dropLines>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="746335152"/>
-        <c:axId val="776590992"/>
+        <c:axId val="668773312"/>
+        <c:axId val="779754320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="746335152"/>
+        <c:axId val="668773312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -582,36 +666,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                    <a:ln w="0"/>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                        <a:schemeClr val="dk1">
-                          <a:alpha val="40000"/>
-                        </a:schemeClr>
-                      </a:outerShdw>
-                    </a:effectLst>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time in</a:t>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Time in MM:SS</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> MM:SS</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -625,39 +695,28 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                  <a:ln w="0"/>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="lt1"/>
                   </a:solidFill>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                      <a:schemeClr val="dk1">
-                        <a:alpha val="40000"/>
-                      </a:schemeClr>
-                    </a:outerShdw>
-                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="lt1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -668,66 +727,35 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                <a:ln w="0"/>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776590992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:crossAx val="779754320"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="776590992"/>
+        <c:axId val="779754320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -735,31 +763,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                    <a:ln w="0"/>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                        <a:schemeClr val="dk1">
-                          <a:alpha val="40000"/>
-                        </a:schemeClr>
-                      </a:outerShdw>
-                    </a:effectLst>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Temperture in Celcius</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -773,28 +792,21 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                  <a:ln w="0"/>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="lt1"/>
                   </a:solidFill>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                      <a:schemeClr val="dk1">
-                        <a:alpha val="40000"/>
-                      </a:schemeClr>
-                    </a:outerShdw>
-                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0.0\ \°\c" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -809,44 +821,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                <a:ln w="0"/>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="746335152"/>
+        <c:crossAx val="668773312"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -858,15 +852,38 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="7000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="90000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="67000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -877,21 +894,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr b="0" cap="none" spc="0">
-          <a:ln w="0"/>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="dk1">
-                <a:alpha val="40000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -899,6 +904,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -943,173 +949,41 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
+  <cs:chartArea>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1126,8 +1000,128 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1147,21 +1141,20 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1169,7 +1162,9 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1178,15 +1173,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1201,19 +1196,27 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1222,12 +1225,18 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -1239,7 +1248,29 @@
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1248,34 +1279,17 @@
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1284,16 +1298,19 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1302,9 +1319,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1315,10 +1332,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -1329,21 +1343,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
@@ -1354,21 +1353,20 @@
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1377,7 +1375,9 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1386,9 +1386,10 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1400,27 +1401,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1429,15 +1428,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1445,13 +1443,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1462,12 +1462,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1484,20 +1481,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84277</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1513,6 +1516,252 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0775</cdr:x>
+      <cdr:y>0.346</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98427</cdr:x>
+      <cdr:y>0.34728</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC58B4D0-B01B-4314-925B-3A64B6DCF422}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="750720" y="2181225"/>
+          <a:ext cx="8783806" cy="8071"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03661</cdr:x>
+      <cdr:y>0.31353</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09324</cdr:x>
+      <cdr:y>0.34244</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFB9B1A-F148-44CF-AE77-12468473A385}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="341990" y="1984987"/>
+          <a:ext cx="528972" cy="183031"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>55 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>°c</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6787</cdr:x>
+      <cdr:y>0.11849</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85154</cdr:x>
+      <cdr:y>0.15858</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD97D1F-949A-4E46-B797-E863BC17B752}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6241483" y="752940"/>
+          <a:ext cx="1589523" cy="254809"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19245</cdr:x>
+      <cdr:y>0.21947</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42623</cdr:x>
+      <cdr:y>0.31959</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712EE857-39A4-4B4F-B2B7-58669E32D44F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1789137" y="1389453"/>
+          <a:ext cx="2173264" cy="633866"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>After</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 5 minutes red led colors on </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>coffee machine change to: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF7FC1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"Hotpink" </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FF7FC1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1780,17 +2029,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1804,16 +2053,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30576</v>
       </c>
       <c r="B2" s="1">
-        <f>A2/86400000</f>
+        <f t="shared" ref="B2:B33" si="0">A2/86400000</f>
         <v>3.5388888888888888E-4</v>
       </c>
       <c r="C2" s="2">
-        <f>B2</f>
+        <f t="shared" ref="C2:C33" si="1">B2</f>
         <v>3.5388888888888888E-4</v>
       </c>
       <c r="D2" s="4">
@@ -1823,16 +2072,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>46311</v>
       </c>
       <c r="B3" s="1">
-        <f>A3/86400000</f>
+        <f t="shared" si="0"/>
         <v>5.3600694444444442E-4</v>
       </c>
       <c r="C3" s="2">
-        <f>B3</f>
+        <f t="shared" si="1"/>
         <v>5.3600694444444442E-4</v>
       </c>
       <c r="D3" s="4">
@@ -1842,16 +2091,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>62019</v>
       </c>
       <c r="B4" s="1">
-        <f>A4/86400000</f>
+        <f t="shared" si="0"/>
         <v>7.1781250000000003E-4</v>
       </c>
       <c r="C4" s="2">
-        <f>B4</f>
+        <f t="shared" si="1"/>
         <v>7.1781250000000003E-4</v>
       </c>
       <c r="D4" s="4">
@@ -1861,16 +2110,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>93023</v>
       </c>
       <c r="B5" s="1">
-        <f>A5/86400000</f>
+        <f t="shared" si="0"/>
         <v>1.0766550925925926E-3</v>
       </c>
       <c r="C5" s="2">
-        <f>B5</f>
+        <f t="shared" si="1"/>
         <v>1.0766550925925926E-3</v>
       </c>
       <c r="D5" s="4">
@@ -1880,16 +2129,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>108762</v>
       </c>
       <c r="B6" s="1">
-        <f>A6/86400000</f>
+        <f t="shared" si="0"/>
         <v>1.2588194444444444E-3</v>
       </c>
       <c r="C6" s="2">
-        <f>B6</f>
+        <f t="shared" si="1"/>
         <v>1.2588194444444444E-3</v>
       </c>
       <c r="D6" s="4">
@@ -1899,16 +2148,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>124467</v>
       </c>
       <c r="B7" s="1">
-        <f>A7/86400000</f>
+        <f t="shared" si="0"/>
         <v>1.4405902777777778E-3</v>
       </c>
       <c r="C7" s="2">
-        <f>B7</f>
+        <f t="shared" si="1"/>
         <v>1.4405902777777778E-3</v>
       </c>
       <c r="D7" s="4">
@@ -1918,16 +2167,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>140173</v>
       </c>
       <c r="B8" s="1">
-        <f>A8/86400000</f>
+        <f t="shared" si="0"/>
         <v>1.6223726851851852E-3</v>
       </c>
       <c r="C8" s="2">
-        <f>B8</f>
+        <f t="shared" si="1"/>
         <v>1.6223726851851852E-3</v>
       </c>
       <c r="D8" s="4">
@@ -1937,16 +2186,16 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>155878</v>
       </c>
       <c r="B9" s="1">
-        <f>A9/86400000</f>
+        <f t="shared" si="0"/>
         <v>1.8041435185185185E-3</v>
       </c>
       <c r="C9" s="2">
-        <f>B9</f>
+        <f t="shared" si="1"/>
         <v>1.8041435185185185E-3</v>
       </c>
       <c r="D9" s="4">
@@ -1956,16 +2205,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>171600</v>
       </c>
       <c r="B10" s="1">
-        <f>A10/86400000</f>
+        <f t="shared" si="0"/>
         <v>1.9861111111111112E-3</v>
       </c>
       <c r="C10" s="2">
-        <f>B10</f>
+        <f t="shared" si="1"/>
         <v>1.9861111111111112E-3</v>
       </c>
       <c r="D10" s="4">
@@ -1975,16 +2224,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>190347</v>
       </c>
       <c r="B11" s="1">
-        <f>A11/86400000</f>
+        <f t="shared" si="0"/>
         <v>2.2030902777777778E-3</v>
       </c>
       <c r="C11" s="2">
-        <f>B11</f>
+        <f t="shared" si="1"/>
         <v>2.2030902777777778E-3</v>
       </c>
       <c r="D11" s="4">
@@ -1994,16 +2243,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>206055</v>
       </c>
       <c r="B12" s="1">
-        <f>A12/86400000</f>
+        <f t="shared" si="0"/>
         <v>2.3848958333333335E-3</v>
       </c>
       <c r="C12" s="2">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>2.3848958333333335E-3</v>
       </c>
       <c r="D12" s="4">
@@ -2013,16 +2262,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>237069</v>
       </c>
       <c r="B13" s="1">
-        <f>A13/86400000</f>
+        <f t="shared" si="0"/>
         <v>2.7438541666666666E-3</v>
       </c>
       <c r="C13" s="2">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>2.7438541666666666E-3</v>
       </c>
       <c r="D13" s="4">
@@ -2032,16 +2281,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>252775</v>
       </c>
       <c r="B14" s="1">
-        <f>A14/86400000</f>
+        <f t="shared" si="0"/>
         <v>2.925636574074074E-3</v>
       </c>
       <c r="C14" s="2">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>2.925636574074074E-3</v>
       </c>
       <c r="D14" s="4">
@@ -2051,16 +2300,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>268480</v>
       </c>
       <c r="B15" s="1">
-        <f>A15/86400000</f>
+        <f t="shared" si="0"/>
         <v>3.1074074074074073E-3</v>
       </c>
       <c r="C15" s="2">
-        <f>B15</f>
+        <f t="shared" si="1"/>
         <v>3.1074074074074073E-3</v>
       </c>
       <c r="D15" s="4">
@@ -2070,16 +2319,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>299526</v>
       </c>
       <c r="B16" s="1">
-        <f>A16/86400000</f>
+        <f t="shared" si="0"/>
         <v>3.466736111111111E-3</v>
       </c>
       <c r="C16" s="2">
-        <f>B16</f>
+        <f t="shared" si="1"/>
         <v>3.466736111111111E-3</v>
       </c>
       <c r="D16" s="4">
@@ -2089,16 +2338,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>315232</v>
       </c>
       <c r="B17" s="1">
-        <f>A17/86400000</f>
+        <f t="shared" si="0"/>
         <v>3.6485185185185184E-3</v>
       </c>
       <c r="C17" s="2">
-        <f>B17</f>
+        <f t="shared" si="1"/>
         <v>3.6485185185185184E-3</v>
       </c>
       <c r="D17" s="4">
@@ -2108,16 +2357,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>330938</v>
       </c>
       <c r="B18" s="1">
-        <f>A18/86400000</f>
+        <f t="shared" si="0"/>
         <v>3.8303009259259258E-3</v>
       </c>
       <c r="C18" s="2">
-        <f>B18</f>
+        <f t="shared" si="1"/>
         <v>3.8303009259259258E-3</v>
       </c>
       <c r="D18" s="4">
@@ -2127,16 +2376,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>346644</v>
       </c>
       <c r="B19" s="1">
-        <f>A19/86400000</f>
+        <f t="shared" si="0"/>
         <v>4.0120833333333336E-3</v>
       </c>
       <c r="C19" s="2">
-        <f>B19</f>
+        <f t="shared" si="1"/>
         <v>4.0120833333333336E-3</v>
       </c>
       <c r="D19" s="4">
@@ -2146,16 +2395,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>362370</v>
       </c>
       <c r="B20" s="1">
-        <f>A20/86400000</f>
+        <f t="shared" si="0"/>
         <v>4.1940972222222223E-3</v>
       </c>
       <c r="C20" s="2">
-        <f>B20</f>
+        <f t="shared" si="1"/>
         <v>4.1940972222222223E-3</v>
       </c>
       <c r="D20" s="4">
@@ -2165,16 +2414,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>378076</v>
       </c>
       <c r="B21" s="1">
-        <f>A21/86400000</f>
+        <f t="shared" si="0"/>
         <v>4.3758796296296297E-3</v>
       </c>
       <c r="C21" s="2">
-        <f>B21</f>
+        <f t="shared" si="1"/>
         <v>4.3758796296296297E-3</v>
       </c>
       <c r="D21" s="4">
@@ -2184,16 +2433,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>409081</v>
       </c>
       <c r="B22" s="1">
-        <f>A22/86400000</f>
+        <f t="shared" si="0"/>
         <v>4.7347337962962959E-3</v>
       </c>
       <c r="C22" s="2">
-        <f>B22</f>
+        <f t="shared" si="1"/>
         <v>4.7347337962962959E-3</v>
       </c>
       <c r="D22" s="4">
@@ -2203,16 +2452,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>440114</v>
       </c>
       <c r="B23" s="1">
-        <f>A23/86400000</f>
+        <f t="shared" si="0"/>
         <v>5.0939120370370374E-3</v>
       </c>
       <c r="C23" s="2">
-        <f>B23</f>
+        <f t="shared" si="1"/>
         <v>5.0939120370370374E-3</v>
       </c>
       <c r="D23" s="4">
@@ -2222,16 +2471,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>455822</v>
       </c>
       <c r="B24" s="1">
-        <f>A24/86400000</f>
+        <f t="shared" si="0"/>
         <v>5.2757175925925923E-3</v>
       </c>
       <c r="C24" s="2">
-        <f>B24</f>
+        <f t="shared" si="1"/>
         <v>5.2757175925925923E-3</v>
       </c>
       <c r="D24" s="4">
@@ -2241,16 +2490,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>471531</v>
       </c>
       <c r="B25" s="1">
-        <f>A25/86400000</f>
+        <f t="shared" si="0"/>
         <v>5.4575347222222221E-3</v>
       </c>
       <c r="C25" s="2">
-        <f>B25</f>
+        <f t="shared" si="1"/>
         <v>5.4575347222222221E-3</v>
       </c>
       <c r="D25" s="4">
@@ -2260,16 +2509,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>487253</v>
       </c>
       <c r="B26" s="1">
-        <f>A26/86400000</f>
+        <f t="shared" si="0"/>
         <v>5.6395023148148151E-3</v>
       </c>
       <c r="C26" s="2">
-        <f>B26</f>
+        <f t="shared" si="1"/>
         <v>5.6395023148148151E-3</v>
       </c>
       <c r="D26" s="4">
@@ -2279,16 +2528,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>502960</v>
       </c>
       <c r="B27" s="1">
-        <f>A27/86400000</f>
+        <f t="shared" si="0"/>
         <v>5.8212962962962966E-3</v>
       </c>
       <c r="C27" s="2">
-        <f>B27</f>
+        <f t="shared" si="1"/>
         <v>5.8212962962962966E-3</v>
       </c>
       <c r="D27" s="4">
@@ -2298,16 +2547,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>518666</v>
       </c>
       <c r="B28" s="1">
-        <f>A28/86400000</f>
+        <f t="shared" si="0"/>
         <v>6.003078703703704E-3</v>
       </c>
       <c r="C28" s="2">
-        <f>B28</f>
+        <f t="shared" si="1"/>
         <v>6.003078703703704E-3</v>
       </c>
       <c r="D28" s="4">
@@ -2317,16 +2566,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>534370</v>
       </c>
       <c r="B29" s="1">
-        <f>A29/86400000</f>
+        <f t="shared" si="0"/>
         <v>6.1848379629629632E-3</v>
       </c>
       <c r="C29" s="2">
-        <f>B29</f>
+        <f t="shared" si="1"/>
         <v>6.1848379629629632E-3</v>
       </c>
       <c r="D29" s="4">
@@ -2336,16 +2585,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>550092</v>
       </c>
       <c r="B30" s="1">
-        <f>A30/86400000</f>
+        <f t="shared" si="0"/>
         <v>6.3668055555555552E-3</v>
       </c>
       <c r="C30" s="2">
-        <f>B30</f>
+        <f t="shared" si="1"/>
         <v>6.3668055555555552E-3</v>
       </c>
       <c r="D30" s="4">
@@ -2355,16 +2604,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>565799</v>
       </c>
       <c r="B31" s="1">
-        <f>A31/86400000</f>
+        <f t="shared" si="0"/>
         <v>6.5485995370370368E-3</v>
       </c>
       <c r="C31" s="2">
-        <f>B31</f>
+        <f t="shared" si="1"/>
         <v>6.5485995370370368E-3</v>
       </c>
       <c r="D31" s="4">
@@ -2374,16 +2623,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>581506</v>
       </c>
       <c r="B32" s="1">
-        <f>A32/86400000</f>
+        <f t="shared" si="0"/>
         <v>6.7303935185185184E-3</v>
       </c>
       <c r="C32" s="2">
-        <f>B32</f>
+        <f t="shared" si="1"/>
         <v>6.7303935185185184E-3</v>
       </c>
       <c r="D32" s="4">
@@ -2393,16 +2642,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>597219</v>
       </c>
       <c r="B33" s="1">
-        <f>A33/86400000</f>
+        <f t="shared" si="0"/>
         <v>6.9122569444444448E-3</v>
       </c>
       <c r="C33" s="2">
-        <f>B33</f>
+        <f t="shared" si="1"/>
         <v>6.9122569444444448E-3</v>
       </c>
       <c r="D33" s="4">
@@ -2412,16 +2661,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>628229</v>
       </c>
       <c r="B34" s="1">
-        <f>A34/86400000</f>
+        <f t="shared" ref="B34:B50" si="2">A34/86400000</f>
         <v>7.2711689814814818E-3</v>
       </c>
       <c r="C34" s="2">
-        <f>B34</f>
+        <f t="shared" ref="C34:C50" si="3">B34</f>
         <v>7.2711689814814818E-3</v>
       </c>
       <c r="D34" s="4">
@@ -2431,16 +2680,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>659234</v>
       </c>
       <c r="B35" s="1">
-        <f>A35/86400000</f>
+        <f t="shared" si="2"/>
         <v>7.6300231481481479E-3</v>
       </c>
       <c r="C35" s="2">
-        <f>B35</f>
+        <f t="shared" si="3"/>
         <v>7.6300231481481479E-3</v>
       </c>
       <c r="D35" s="4">
@@ -2450,16 +2699,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>674947</v>
       </c>
       <c r="B36" s="1">
-        <f>A36/86400000</f>
+        <f t="shared" si="2"/>
         <v>7.8118865740740744E-3</v>
       </c>
       <c r="C36" s="2">
-        <f>B36</f>
+        <f t="shared" si="3"/>
         <v>7.8118865740740744E-3</v>
       </c>
       <c r="D36" s="4">
@@ -2469,16 +2718,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>690654</v>
       </c>
       <c r="B37" s="1">
-        <f>A37/86400000</f>
+        <f t="shared" si="2"/>
         <v>7.993680555555556E-3</v>
       </c>
       <c r="C37" s="2">
-        <f>B37</f>
+        <f t="shared" si="3"/>
         <v>7.993680555555556E-3</v>
       </c>
       <c r="D37" s="4">
@@ -2488,16 +2737,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>706358</v>
       </c>
       <c r="B38" s="1">
-        <f>A38/86400000</f>
+        <f t="shared" si="2"/>
         <v>8.1754398148148142E-3</v>
       </c>
       <c r="C38" s="2">
-        <f>B38</f>
+        <f t="shared" si="3"/>
         <v>8.1754398148148142E-3</v>
       </c>
       <c r="D38" s="4">
@@ -2507,16 +2756,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>737377</v>
       </c>
       <c r="B39" s="1">
-        <f>A39/86400000</f>
+        <f t="shared" si="2"/>
         <v>8.5344560185185193E-3</v>
       </c>
       <c r="C39" s="2">
-        <f>B39</f>
+        <f t="shared" si="3"/>
         <v>8.5344560185185193E-3</v>
       </c>
       <c r="D39" s="4">
@@ -2526,16 +2775,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>768382</v>
       </c>
       <c r="B40" s="1">
-        <f>A40/86400000</f>
+        <f t="shared" si="2"/>
         <v>8.8933101851851847E-3</v>
       </c>
       <c r="C40" s="2">
-        <f>B40</f>
+        <f t="shared" si="3"/>
         <v>8.8933101851851847E-3</v>
       </c>
       <c r="D40" s="4">
@@ -2545,16 +2794,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>784090</v>
       </c>
       <c r="B41" s="1">
-        <f>A41/86400000</f>
+        <f t="shared" si="2"/>
         <v>9.0751157407407412E-3</v>
       </c>
       <c r="C41" s="2">
-        <f>B41</f>
+        <f t="shared" si="3"/>
         <v>9.0751157407407412E-3</v>
       </c>
       <c r="D41" s="4">
@@ -2564,16 +2813,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>799812</v>
       </c>
       <c r="B42" s="1">
-        <f>A42/86400000</f>
+        <f t="shared" si="2"/>
         <v>9.2570833333333342E-3</v>
       </c>
       <c r="C42" s="2">
-        <f>B42</f>
+        <f t="shared" si="3"/>
         <v>9.2570833333333342E-3</v>
       </c>
       <c r="D42" s="4">
@@ -2583,16 +2832,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>815515</v>
       </c>
       <c r="B43" s="1">
-        <f>A43/86400000</f>
+        <f t="shared" si="2"/>
         <v>9.4388310185185183E-3</v>
       </c>
       <c r="C43" s="2">
-        <f>B43</f>
+        <f t="shared" si="3"/>
         <v>9.4388310185185183E-3</v>
       </c>
       <c r="D43" s="4">
@@ -2602,16 +2851,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>846520</v>
       </c>
       <c r="B44" s="1">
-        <f>A44/86400000</f>
+        <f t="shared" si="2"/>
         <v>9.7976851851851853E-3</v>
       </c>
       <c r="C44" s="2">
-        <f>B44</f>
+        <f t="shared" si="3"/>
         <v>9.7976851851851853E-3</v>
       </c>
       <c r="D44" s="4">
@@ -2621,16 +2870,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>862260</v>
       </c>
       <c r="B45" s="1">
-        <f>A45/86400000</f>
+        <f t="shared" si="2"/>
         <v>9.9798611111111112E-3</v>
       </c>
       <c r="C45" s="2">
-        <f>B45</f>
+        <f t="shared" si="3"/>
         <v>9.9798611111111112E-3</v>
       </c>
       <c r="D45" s="4">
@@ -2640,16 +2889,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>877969</v>
       </c>
       <c r="B46" s="1">
-        <f>A46/86400000</f>
+        <f t="shared" si="2"/>
         <v>1.016167824074074E-2</v>
       </c>
       <c r="C46" s="2">
-        <f>B46</f>
+        <f t="shared" si="3"/>
         <v>1.016167824074074E-2</v>
       </c>
       <c r="D46" s="4">
@@ -2659,16 +2908,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>908971</v>
       </c>
       <c r="B47" s="1">
-        <f>A47/86400000</f>
+        <f t="shared" si="2"/>
         <v>1.0520497685185185E-2</v>
       </c>
       <c r="C47" s="2">
-        <f>B47</f>
+        <f t="shared" si="3"/>
         <v>1.0520497685185185E-2</v>
       </c>
       <c r="D47" s="4">
@@ -2678,16 +2927,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>931358</v>
       </c>
       <c r="B48" s="1">
-        <f>A48/86400000</f>
+        <f t="shared" si="2"/>
         <v>1.0779606481481482E-2</v>
       </c>
       <c r="C48" s="2">
-        <f>B48</f>
+        <f t="shared" si="3"/>
         <v>1.0779606481481482E-2</v>
       </c>
       <c r="D48" s="4">
@@ -2697,16 +2946,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>953508</v>
       </c>
       <c r="B49" s="1">
-        <f>A49/86400000</f>
+        <f t="shared" si="2"/>
         <v>1.1035972222222223E-2</v>
       </c>
       <c r="C49" s="2">
-        <f>B49</f>
+        <f t="shared" si="3"/>
         <v>1.1035972222222223E-2</v>
       </c>
       <c r="D49" s="4">
@@ -2716,16 +2965,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>975606</v>
       </c>
       <c r="B50" s="1">
-        <f>A50/86400000</f>
+        <f t="shared" si="2"/>
         <v>1.1291736111111112E-2</v>
       </c>
       <c r="C50" s="2">
-        <f>B50</f>
+        <f t="shared" si="3"/>
         <v>1.1291736111111112E-2</v>
       </c>
       <c r="D50" s="4">
